--- a/data/HR1_2/A_KPC_35/A_KPC_35_2020.xlsx
+++ b/data/HR1_2/A_KPC_35/A_KPC_35_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_KPC_35\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\A_KPC_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3228184-DD9B-44DD-B4A3-63F442CD0494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0924679F-C37A-46FB-A136-7D8D9336A97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A16" sqref="A16:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A16" sqref="A16:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,7 +2756,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A16" sqref="A16:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3926,7 +3926,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A16" sqref="A16:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5096,7 +5096,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A16" sqref="A16:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6663,10 +6663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3639D475-DF5D-4D0A-A303-0217C8DE5568}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7825,6 +7825,448 @@
       <c r="Y15" s="2">
         <v>0.332768175</v>
       </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7834,10 +8276,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705DA8A3-B9ED-4A3D-B72F-89DB4830B688}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y15"/>
+      <selection activeCell="A16" sqref="A16:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8996,6 +9438,396 @@
       <c r="Y15" s="2">
         <v>0.32933142499999996</v>
       </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9004,10 +9836,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A941C223-66F4-404F-9171-47D28B3A746E}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y15"/>
+      <selection activeCell="A16" sqref="A16:Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10166,6 +10998,396 @@
       <c r="Y15" s="2">
         <v>0.27668807500000003</v>
       </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10174,10 +11396,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97364646-1093-4BCC-8DFC-CC3F6977D51D}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y15"/>
+      <selection activeCell="A16" sqref="A16:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11336,6 +12558,396 @@
       <c r="Y15" s="2">
         <v>0.19853904999999999</v>
       </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11344,10 +12956,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84633293-870E-4AA2-9DF5-995E3D67B40E}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y15"/>
+      <selection activeCell="A16" sqref="A16:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12506,6 +14118,396 @@
       <c r="Y15" s="2">
         <v>0.19631037500000001</v>
       </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12514,10 +14516,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA4A3F4-2896-4B8F-A591-DCF30ADE756C}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y15"/>
+      <selection activeCell="A16" sqref="A16:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13676,6 +15678,396 @@
       <c r="Y15" s="2">
         <v>0.212941925</v>
       </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14086,8 +16478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B399005-772D-47EA-BABE-C29DCD16554D}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
